--- a/biology/Botanique/Jean-Baptiste_Houllet/Jean-Baptiste_Houllet.xlsx
+++ b/biology/Botanique/Jean-Baptiste_Houllet/Jean-Baptiste_Houllet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Romain Jean-Baptiste Houllet, né le 17 juin 1815 à Paris et mort le 24 avril 1890 à Fontenay-sous-Bois[2], est un botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Romain Jean-Baptiste Houllet, né le 17 juin 1815 à Paris et mort le 24 avril 1890 à Fontenay-sous-Bois, est un botaniste français.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Houllet a été jardinier en chef des serres du Muséum national d'histoire naturelle de Paris. 
 Il fut collecteur au Brésil, au Mexique et dans les Andes durant sa jeunesse.
-En 1845, il exerçait les fonctions de sous-chef aux serres chaudes du Jardin des plantes de Paris[3].
-Il fut membre de la Société nationale d'horticulture de France de 1867 à sa mort[4].
+En 1845, il exerçait les fonctions de sous-chef aux serres chaudes du Jardin des plantes de Paris.
+Il fut membre de la Société nationale d'horticulture de France de 1867 à sa mort.
 Le genre Houlletia qui regroupe des orchidées sud-américaines a été baptisé en son honneur par Adolphe Brongniart (1801-1876) en 1841.
 </t>
         </is>
